--- a/Civilworks cost/RADP Preparations/Hoboganj/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Hoboganj/Projecttion_output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\RADP Preparations\Sunamgonj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\RADP Preparations\Hoboganj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="191">
   <si>
     <t>Items</t>
   </si>
@@ -207,169 +207,365 @@
     <t>District Code</t>
   </si>
   <si>
-    <t>BWDB/Sunam/HFMLIP/PW-01 Dhakua Haor (Division-2)</t>
-  </si>
-  <si>
-    <t>BWDB/Sunam/HFMLIP/PW-02 Dhakua Haor (Division-2)</t>
-  </si>
-  <si>
-    <t>BWDB/Sunam/HFMLIP/PW-03 Dhakua Haor (Division-1)</t>
-  </si>
-  <si>
-    <t>BWDB/Sunam/HFMLIP/PW-04 Dharmapasha Rui Beel (Division-1)</t>
-  </si>
-  <si>
-    <t>BWDB/Sunam/HFMLIP/PW-05 Dharmapasha Rui Beel (Division-1)</t>
-  </si>
-  <si>
-    <t>BWDB/Sunam/HFMLIP/PW-06 Dharmapasha Rui Beel (Division-1)</t>
-  </si>
-  <si>
-    <t>Submersible Embankment between km10.600 to 49.426 total 33.849km</t>
-  </si>
-  <si>
-    <t>Re-Excavation of Dariabaz Khal</t>
-  </si>
-  <si>
-    <t>Re-Excavation of Juriganga Khal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-Excavation of Purukania Khal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-Excavation of Muktakhai River </t>
-  </si>
-  <si>
-    <t>Box Drainage Outlet-1</t>
-  </si>
-  <si>
-    <t>Box Drainage Outlet-2</t>
-  </si>
-  <si>
-    <t>Box Drainage Outlet-3</t>
-  </si>
-  <si>
-    <t>Box Drainage Outlet-4</t>
-  </si>
-  <si>
-    <t>Box Drainage Outlet-5</t>
-  </si>
-  <si>
-    <t>Box Drainage Outlet-6</t>
-  </si>
-  <si>
-    <t>Box Drainage Outlet-7</t>
+    <t>BWDB/Hobi/HFMLIP/PW-01
+Bashira River</t>
+  </si>
+  <si>
+    <t>BWDB/Hobi/HFMLIP/PW-02
+Kairdhala</t>
+  </si>
+  <si>
+    <t>BWDB/Hobi/HFMLIP/PW-04
+Mokhar Haor</t>
+  </si>
+  <si>
+    <t>BWDB/Hobi/HFMLIP/PW-05
+Mokhar Haor</t>
+  </si>
+  <si>
+    <t>BWDB/Hobi/HFMLIP/PW-05
+Mokhar Hao</t>
+  </si>
+  <si>
+    <t>BWDB/Hobi/HFMLIP/PW-06
+Mokhar Haor</t>
+  </si>
+  <si>
+    <t>BWDB/Hobi/HFMLIP/PW-07
+Mokhar Haor</t>
+  </si>
+  <si>
+    <t>Resectioning of Embankment along the left bank of the Bashira River  inbwt 2.420 to 9.760</t>
+  </si>
+  <si>
+    <t>construction of new Embankment along the left bank of bitangal khal inbwt 10.000 to 17.000</t>
+  </si>
+  <si>
+    <t>Reexcavation of Bashira River 0.000  to 20.000</t>
+  </si>
+  <si>
+    <t>Reexcavation of Matikatakahl from 0.000 to Km 2.295</t>
+  </si>
+  <si>
+    <t>Construction of 2-vent Regulator</t>
+  </si>
+  <si>
+    <t>Construction of 4.00m causeway</t>
+  </si>
+  <si>
+    <t>Resctioning of Submersible Embankment from 0.000 to 26.000 at Left Bank of Kushiyara</t>
+  </si>
+  <si>
+    <t>Construction of Retired Embankment in between 0.000 to 26.500</t>
+  </si>
+  <si>
+    <t>Resctioning of Submersible Embankment from 0.000 to 16.02 at Right Bank of Khoai</t>
+  </si>
+  <si>
+    <t>Construction of New Embankment from Km 22.850 to 31.210</t>
+  </si>
+  <si>
+    <t>Reexcavation of Kairdhala Khal from 0.000 to 1.6950 km</t>
+  </si>
+  <si>
+    <t>Reexcavation of Satmukha Khal from 0.000 to 1.790 km</t>
+  </si>
+  <si>
+    <t>Reexcavation of Singer Beel Khal from 0.000 to 2.720 km</t>
+  </si>
+  <si>
+    <t>Construction of  Dairar Khal Causeway 6-m width Causeway</t>
+  </si>
+  <si>
+    <t>Ikrampur CW-6M</t>
+  </si>
+  <si>
+    <t>Submesible Embankment from 31.600 to 81.740</t>
+  </si>
+  <si>
+    <t>Block road</t>
+  </si>
+  <si>
+    <t>Boranbil khal Regulator (1-vent)</t>
+  </si>
+  <si>
+    <t>Chandakhali khal Regulator(1-vent)</t>
+  </si>
+  <si>
+    <t>Chargaowdair khal Regulator(1-vent)</t>
+  </si>
+  <si>
+    <t>Chhoto Katari khal Regulator(1-vent)</t>
+  </si>
+  <si>
+    <t>Islampur khal Regulator (1-vent)</t>
+  </si>
+  <si>
+    <t>Tetter Drepasionkhal Regulator(2-vent)</t>
+  </si>
+  <si>
+    <t>Soaybeel khal Regulator (5-vent)</t>
+  </si>
+  <si>
+    <t>Bibiyana 6.0m Causeway</t>
+  </si>
+  <si>
+    <t>Old kushiyana 6.0m Causeway</t>
+  </si>
+  <si>
+    <t>Ratna River 4.0m Causeway</t>
+  </si>
+  <si>
+    <t>Rukway 4.0m Causeway</t>
+  </si>
+  <si>
+    <t>BoX1</t>
+  </si>
+  <si>
+    <t>BoX2</t>
+  </si>
+  <si>
+    <t>BoX3</t>
+  </si>
+  <si>
+    <t>BoX4</t>
+  </si>
+  <si>
+    <t>BoX5</t>
+  </si>
+  <si>
+    <t>BoX6</t>
+  </si>
+  <si>
+    <t>BoX7</t>
+  </si>
+  <si>
+    <t>BoX8</t>
+  </si>
+  <si>
+    <t>BoX9</t>
   </si>
   <si>
     <t>Irrigation Inlet</t>
   </si>
   <si>
-    <t>Re-excavation of Piyan River from km 19.000 to km 55.575 total 36.575km</t>
-  </si>
-  <si>
-    <t>1 vent (1.50m X 1.80m)-1</t>
-  </si>
-  <si>
-    <t>2 vent (1.50m X 1.80m)-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Causeway 4.0m wide-1 </t>
-  </si>
-  <si>
-    <t>Causeway 4.0m wide-2</t>
-  </si>
-  <si>
-    <t>Causeway 4.0m wide-3</t>
-  </si>
-  <si>
-    <t>Causeway 4.0m wide-4</t>
-  </si>
-  <si>
-    <t>Causeway 4.0m wide-5</t>
-  </si>
-  <si>
-    <t>Causeway 6.0m wide-1</t>
-  </si>
-  <si>
-    <t>Construction of Submersible embankment-34.94km</t>
-  </si>
-  <si>
-    <t>Dahar  4vent (1.50m X 1.80m)-1 Regulator</t>
-  </si>
-  <si>
-    <t>Deola 2 vent (1.50m X 1.80m)-1  Regulator</t>
-  </si>
-  <si>
-    <t>Manani Causeway 6.0m wide-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dahar Causeway 4.0m wide-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Daharagang Causeway 4.0m wide-2</t>
-  </si>
-  <si>
-    <t>Chandrasona Causeway 4.0m wide-3</t>
-  </si>
-  <si>
-    <t>Khurma Khal</t>
-  </si>
-  <si>
-    <t>Udani Khal</t>
-  </si>
-  <si>
-    <t>Deola Khal</t>
-  </si>
-  <si>
-    <t>Shaitan Khal</t>
-  </si>
-  <si>
-    <t>Banni Khal2</t>
-  </si>
-  <si>
-    <t>Rui Beel Khal</t>
-  </si>
-  <si>
-    <t>Dahar Gang</t>
-  </si>
-  <si>
-    <t>Gobra Khal</t>
-  </si>
-  <si>
-    <t>Banni Khal1</t>
-  </si>
-  <si>
-    <t>Dagar Khal</t>
-  </si>
-  <si>
-    <t>Rajpur Khal</t>
-  </si>
-  <si>
-    <t>Kolma Khal</t>
-  </si>
-  <si>
-    <t>Agunia khal</t>
-  </si>
-  <si>
-    <t>Kakura Khal</t>
-  </si>
-  <si>
-    <t>Dharam Beel Khal</t>
-  </si>
-  <si>
-    <t>Bararia Khal</t>
-  </si>
-  <si>
-    <t>Const. of Box Drainage Outlet-1</t>
+    <t xml:space="preserve">Chargaowdair khal </t>
+  </si>
+  <si>
+    <t>Chotokatari Khal</t>
+  </si>
+  <si>
+    <t>Salukadhar Khal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islampur khal </t>
+  </si>
+  <si>
+    <t>Soyabeel Khal</t>
+  </si>
+  <si>
+    <t>Chatal Beel Khal</t>
+  </si>
+  <si>
+    <t>Rajendrapur Khal</t>
+  </si>
+  <si>
+    <t>Purohogun Khal</t>
+  </si>
+  <si>
+    <t>Sutki River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratna River </t>
   </si>
   <si>
     <t>km</t>
   </si>
   <si>
+    <t>nos.</t>
+  </si>
+  <si>
     <t>Km</t>
   </si>
   <si>
-    <t>Nos</t>
+    <t>HOBI/PW-01</t>
+  </si>
+  <si>
+    <t>HOBI/PW-02</t>
+  </si>
+  <si>
+    <t>HOBI/PW-04</t>
+  </si>
+  <si>
+    <t>HOBI/PW-05</t>
+  </si>
+  <si>
+    <t>HOBI/PW-06</t>
+  </si>
+  <si>
+    <t>HOBI/PW-07</t>
+  </si>
+  <si>
+    <t>Rehab</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>R-8</t>
+  </si>
+  <si>
+    <t>R-7</t>
+  </si>
+  <si>
+    <t>N-10</t>
+  </si>
+  <si>
+    <t>HOBI</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>Package_No</t>
+  </si>
+  <si>
+    <t>KISH/PW-01</t>
+  </si>
+  <si>
+    <t>KISH/PW-02</t>
+  </si>
+  <si>
+    <t>KISH/PW-03</t>
+  </si>
+  <si>
+    <t>KISH/PW-04</t>
+  </si>
+  <si>
+    <t>KISH/PW-05</t>
+  </si>
+  <si>
+    <t>KISH/PW-06</t>
+  </si>
+  <si>
+    <t>KISH/PW-07</t>
+  </si>
+  <si>
+    <t>KISH/PW-08</t>
+  </si>
+  <si>
+    <t>KISH/PW-09</t>
+  </si>
+  <si>
+    <t>KISH/PW-10</t>
+  </si>
+  <si>
+    <t>KISH/PW-11</t>
+  </si>
+  <si>
+    <t>KISH/PW-12</t>
+  </si>
+  <si>
+    <t>KISH/PW-13</t>
+  </si>
+  <si>
+    <t>KISH/PW-14</t>
+  </si>
+  <si>
+    <t>KISH/PW-15</t>
+  </si>
+  <si>
+    <t>KISH/PW-16</t>
+  </si>
+  <si>
+    <t>KISH/PW-17</t>
+  </si>
+  <si>
+    <t>KISH/PW-18</t>
+  </si>
+  <si>
+    <t>KISH/PW-19</t>
+  </si>
+  <si>
+    <t>KISH/PW-20</t>
+  </si>
+  <si>
+    <t>KISH/PW-21</t>
+  </si>
+  <si>
+    <t>KISH/PW-22</t>
+  </si>
+  <si>
+    <t>KISH/PW-23</t>
+  </si>
+  <si>
+    <t>KISH/PW-24</t>
+  </si>
+  <si>
+    <t>KISH/PW-25</t>
+  </si>
+  <si>
+    <t>KISH/PW-26</t>
+  </si>
+  <si>
+    <t>KISH/PW-27</t>
+  </si>
+  <si>
+    <t>KISH/PW-28</t>
+  </si>
+  <si>
+    <t>KISH/PW-29</t>
+  </si>
+  <si>
+    <t>KISH/PW-30</t>
+  </si>
+  <si>
+    <t>KISH/PW-31</t>
+  </si>
+  <si>
+    <t>KISH/PW-32</t>
+  </si>
+  <si>
+    <t>KISH/PW-33</t>
+  </si>
+  <si>
+    <t>KISH/PW-34</t>
+  </si>
+  <si>
+    <t>KISH/PW-35</t>
+  </si>
+  <si>
+    <t>KISH/PW-36</t>
+  </si>
+  <si>
+    <t>KISH/PW-37</t>
+  </si>
+  <si>
+    <t>KISH/PW-38</t>
+  </si>
+  <si>
+    <t>NETR/PW-01</t>
+  </si>
+  <si>
+    <t>NETR/PW-02</t>
+  </si>
+  <si>
+    <t>NETR/PW-03</t>
+  </si>
+  <si>
+    <t>NETR/PW-04</t>
+  </si>
+  <si>
+    <t>NETR/PW-05</t>
+  </si>
+  <si>
+    <t>NETR/PW-06</t>
+  </si>
+  <si>
+    <t>NETR/PW-07</t>
+  </si>
+  <si>
+    <t>NETR/PW-08</t>
   </si>
   <si>
     <t>SUNM/PW-01</t>
@@ -388,162 +584,6 @@
   </si>
   <si>
     <t>SUNM/PW-06</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>N-14</t>
-  </si>
-  <si>
-    <t>N-12</t>
-  </si>
-  <si>
-    <t>SUNM</t>
-  </si>
-  <si>
-    <t>sl</t>
-  </si>
-  <si>
-    <t>Package_No</t>
-  </si>
-  <si>
-    <t>KISH/PW-01</t>
-  </si>
-  <si>
-    <t>KISH/PW-02</t>
-  </si>
-  <si>
-    <t>KISH/PW-03</t>
-  </si>
-  <si>
-    <t>KISH/PW-04</t>
-  </si>
-  <si>
-    <t>KISH/PW-05</t>
-  </si>
-  <si>
-    <t>KISH/PW-06</t>
-  </si>
-  <si>
-    <t>KISH/PW-07</t>
-  </si>
-  <si>
-    <t>KISH/PW-08</t>
-  </si>
-  <si>
-    <t>KISH/PW-09</t>
-  </si>
-  <si>
-    <t>KISH/PW-10</t>
-  </si>
-  <si>
-    <t>KISH/PW-11</t>
-  </si>
-  <si>
-    <t>KISH/PW-12</t>
-  </si>
-  <si>
-    <t>KISH/PW-13</t>
-  </si>
-  <si>
-    <t>KISH/PW-14</t>
-  </si>
-  <si>
-    <t>KISH/PW-15</t>
-  </si>
-  <si>
-    <t>KISH/PW-16</t>
-  </si>
-  <si>
-    <t>KISH/PW-17</t>
-  </si>
-  <si>
-    <t>KISH/PW-18</t>
-  </si>
-  <si>
-    <t>KISH/PW-19</t>
-  </si>
-  <si>
-    <t>KISH/PW-20</t>
-  </si>
-  <si>
-    <t>KISH/PW-21</t>
-  </si>
-  <si>
-    <t>KISH/PW-22</t>
-  </si>
-  <si>
-    <t>KISH/PW-23</t>
-  </si>
-  <si>
-    <t>KISH/PW-24</t>
-  </si>
-  <si>
-    <t>KISH/PW-25</t>
-  </si>
-  <si>
-    <t>KISH/PW-26</t>
-  </si>
-  <si>
-    <t>KISH/PW-27</t>
-  </si>
-  <si>
-    <t>KISH/PW-28</t>
-  </si>
-  <si>
-    <t>KISH/PW-29</t>
-  </si>
-  <si>
-    <t>KISH/PW-30</t>
-  </si>
-  <si>
-    <t>KISH/PW-31</t>
-  </si>
-  <si>
-    <t>KISH/PW-32</t>
-  </si>
-  <si>
-    <t>KISH/PW-33</t>
-  </si>
-  <si>
-    <t>KISH/PW-34</t>
-  </si>
-  <si>
-    <t>KISH/PW-35</t>
-  </si>
-  <si>
-    <t>KISH/PW-36</t>
-  </si>
-  <si>
-    <t>KISH/PW-37</t>
-  </si>
-  <si>
-    <t>KISH/PW-38</t>
-  </si>
-  <si>
-    <t>NETR/PW-01</t>
-  </si>
-  <si>
-    <t>NETR/PW-02</t>
-  </si>
-  <si>
-    <t>NETR/PW-03</t>
-  </si>
-  <si>
-    <t>NETR/PW-04</t>
-  </si>
-  <si>
-    <t>NETR/PW-05</t>
-  </si>
-  <si>
-    <t>NETR/PW-06</t>
-  </si>
-  <si>
-    <t>NETR/PW-07</t>
-  </si>
-  <si>
-    <t>NETR/PW-08</t>
   </si>
   <si>
     <t>SUNM/PW-07</t>
@@ -938,13 +978,10 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -977,9 +1014,9 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>291.81</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -999,7 +1036,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1019,7 +1056,7 @@
       <c r="E4">
         <v>6503.97</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1039,7 +1076,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1059,7 +1096,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1079,7 +1116,7 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1099,7 +1136,7 @@
       <c r="E8">
         <v>2546.54</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1119,7 +1156,7 @@
       <c r="E9">
         <v>51.09</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1139,7 +1176,7 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1159,7 +1196,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1179,7 +1216,7 @@
       <c r="E12">
         <v>5833.04</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1199,7 +1236,7 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1219,7 +1256,7 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1239,7 +1276,7 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1259,7 +1296,7 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1270,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1325,40 +1362,40 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E2">
-        <v>33.848999999999997</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>867.33</v>
+        <v>151.38499999999999</v>
       </c>
       <c r="G2">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1369,40 +1406,40 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E3">
-        <v>1.48</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>18.828721420000001</v>
+        <v>151.38499999999999</v>
       </c>
       <c r="G3">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1413,40 +1450,40 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E4">
-        <v>1.4379999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F4">
-        <v>32.028825480000002</v>
+        <v>732.6</v>
       </c>
       <c r="G4">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1457,40 +1494,40 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E5">
-        <v>1.56</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="F5">
-        <v>41.048906299999999</v>
+        <v>99.9</v>
       </c>
       <c r="G5">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1501,40 +1538,40 @@
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E6">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>176.47453530000001</v>
+        <v>208</v>
       </c>
       <c r="G6">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1545,40 +1582,40 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>45.09</v>
+        <v>178.13</v>
       </c>
       <c r="G7">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1586,43 +1623,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>7.23</v>
       </c>
       <c r="F8">
-        <v>45.09</v>
+        <v>274.56</v>
       </c>
       <c r="G8">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1630,43 +1667,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>6.8940000000000001</v>
       </c>
       <c r="F9">
-        <v>45.09</v>
+        <v>225.46</v>
       </c>
       <c r="G9">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1674,43 +1711,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>16.02</v>
       </c>
       <c r="F10">
-        <v>45.09</v>
+        <v>318.42</v>
       </c>
       <c r="G10">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1718,43 +1755,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>8.36</v>
       </c>
       <c r="F11">
-        <v>45.09</v>
+        <v>149.54</v>
       </c>
       <c r="G11">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1762,43 +1799,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="F12">
-        <v>45.09</v>
+        <v>132.86610229999999</v>
       </c>
       <c r="G12">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1806,43 +1843,43 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>1.79</v>
       </c>
       <c r="F13">
-        <v>45.09</v>
+        <v>53.047480929999999</v>
       </c>
       <c r="G13">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1850,43 +1887,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>2.72</v>
       </c>
       <c r="F14">
-        <v>10.66</v>
+        <v>29.974988280000002</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
+      <c r="M14" t="s">
+        <v>127</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1897,40 +1934,40 @@
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E15">
-        <v>36.575000000000003</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1193.75</v>
+        <v>168.38</v>
       </c>
       <c r="G15">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1938,43 +1975,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>183.3461227</v>
+        <v>168.38</v>
       </c>
       <c r="G16">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1985,40 +2022,40 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>23.815000000000001</v>
       </c>
       <c r="F17">
-        <v>308.00184510000003</v>
+        <v>638.85</v>
       </c>
       <c r="G17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2029,40 +2066,40 @@
         <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>182.28597360000001</v>
+        <v>507.95</v>
       </c>
       <c r="G18">
-        <v>0.27</v>
+        <v>0.78</v>
       </c>
       <c r="H18">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2070,43 +2107,43 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>182.28597360000001</v>
+        <v>141.3235316</v>
       </c>
       <c r="G19">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2114,43 +2151,43 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>182.28597360000001</v>
+        <v>154.0745714</v>
       </c>
       <c r="G20">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2158,43 +2195,43 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>182.28597360000001</v>
+        <v>151.0703345</v>
       </c>
       <c r="G21">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="H21">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2202,43 +2239,43 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>182.28597360000001</v>
+        <v>143.81093200000001</v>
       </c>
       <c r="G22">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="H22">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="I22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2246,43 +2283,43 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>279.35073799999998</v>
+        <v>155.69327179999999</v>
       </c>
       <c r="G23">
-        <v>0.27</v>
+        <v>0.8</v>
       </c>
       <c r="H23">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J23" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2290,43 +2327,43 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E24">
-        <v>34.94</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1564.32</v>
+        <v>216.75147200000001</v>
       </c>
       <c r="G24">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K24">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2334,31 +2371,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>283.3851262</v>
+        <v>353.8204149</v>
       </c>
       <c r="G25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2367,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N25" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2378,43 +2415,43 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>267.87028529999998</v>
+        <v>415.5317</v>
       </c>
       <c r="G26">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2422,31 +2459,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>225.81</v>
+        <v>373.34588300000001</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J27" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -2455,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2466,31 +2503,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>301.6651</v>
+        <v>143.16040000000001</v>
       </c>
       <c r="G28">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -2499,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N28" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2510,31 +2547,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>187.8663</v>
+        <v>165.18307999999999</v>
       </c>
       <c r="G29">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -2543,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N29" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2554,43 +2591,43 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>191.39009999999999</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="G30">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J30" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N30" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2601,40 +2638,40 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E31">
-        <v>7.18</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>36.088865039381247</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J31" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2645,40 +2682,40 @@
         <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E32">
-        <v>3.8279999999999998</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>54.376977932306822</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J32" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N32" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2689,40 +2726,40 @@
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E33">
-        <v>1.9650000000000001</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>70.108245228127444</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J33" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N33" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2733,40 +2770,40 @@
         <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E34">
-        <v>13.8</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>565.05490314340454</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J34" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N34" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2777,40 +2814,40 @@
         <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E35">
-        <v>2.9129999999999998</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>36.350741502873767</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J35" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2821,40 +2858,40 @@
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E36">
-        <v>3.4140000000000001</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>62.730761725679422</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2865,40 +2902,40 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E37">
-        <v>6.8319999999999999</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>176.76293195203289</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J37" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N37" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2909,40 +2946,40 @@
         <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E38">
-        <v>2.8929999999999998</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>45.673286383310867</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N38" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2953,40 +2990,40 @@
         <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E39">
-        <v>2.6219999999999999</v>
+        <v>15</v>
       </c>
       <c r="F39">
-        <v>39.889138224650537</v>
+        <v>150.75812082990001</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J39" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N39" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2994,19 +3031,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E40">
-        <v>2.665</v>
+        <v>3.036</v>
       </c>
       <c r="F40">
-        <v>15.51163698289931</v>
+        <v>45.420945379999999</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3015,10 +3052,10 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J40" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K40">
         <v>7</v>
@@ -3027,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3038,19 +3075,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E41">
-        <v>3.5950000000000002</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="F41">
-        <v>37.856219399701978</v>
+        <v>61.408012210000003</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3059,10 +3096,10 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J41" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K41">
         <v>7</v>
@@ -3071,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -3082,19 +3119,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E42">
-        <v>2.2040000000000002</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="F42">
-        <v>17.696879656567091</v>
+        <v>67.666316499999994</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3103,10 +3140,10 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J42" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K42">
         <v>7</v>
@@ -3115,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N42" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3126,31 +3163,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E43">
-        <v>7.6109999999999998</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="F43">
-        <v>157.1547044632087</v>
+        <v>25.706503519999998</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J43" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K43">
         <v>7</v>
@@ -3159,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N43" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3170,19 +3207,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E44">
-        <v>1.3049999999999999</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="F44">
-        <v>32.572846448591513</v>
+        <v>139.5950848</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -3191,10 +3228,10 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J44" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K44">
         <v>7</v>
@@ -3203,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N44" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -3214,31 +3251,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E45">
-        <v>1.105</v>
+        <v>5.2176</v>
       </c>
       <c r="F45">
-        <v>37.708401333995603</v>
+        <v>103.1260091</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J45" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K45">
         <v>7</v>
@@ -3247,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3258,31 +3295,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E46">
-        <v>2.11</v>
+        <v>4.327</v>
       </c>
       <c r="F46">
-        <v>14.60007627900376</v>
+        <v>115.1915241</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J46" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K46">
         <v>7</v>
@@ -3291,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N46" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3302,43 +3339,43 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="F47">
-        <v>45.13</v>
+        <v>65.549040759999997</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J47" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N47" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -3346,43 +3383,87 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48">
+        <v>4.5</v>
+      </c>
+      <c r="F48">
+        <v>145.97701989999999</v>
+      </c>
+      <c r="G48">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>123</v>
+      </c>
+      <c r="J48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K48">
+        <v>7</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>128</v>
+      </c>
+      <c r="N48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
         <v>114</v>
       </c>
-      <c r="E48">
-        <v>12</v>
-      </c>
-      <c r="F48">
-        <v>131.38</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>120</v>
-      </c>
-      <c r="J48" t="s">
-        <v>121</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49">
+        <v>7.51</v>
+      </c>
+      <c r="F49">
+        <v>137.49720149999999</v>
+      </c>
+      <c r="G49">
+        <v>0.53</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
         <v>123</v>
       </c>
-      <c r="N48" t="s">
-        <v>124</v>
+      <c r="J49" t="s">
+        <v>125</v>
+      </c>
+      <c r="K49">
+        <v>7</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>128</v>
+      </c>
+      <c r="N49" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3392,7 +3473,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3400,10 +3481,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3417,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D2">
         <v>51.09</v>
@@ -3431,7 +3512,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D3">
         <v>347.71</v>
@@ -3445,7 +3526,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D4">
         <v>625.92999999999995</v>
@@ -3459,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D5">
         <v>714.69</v>
@@ -3473,7 +3554,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D6">
         <v>575.15</v>
@@ -3487,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D7">
         <v>837.25</v>
@@ -3501,7 +3582,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D8">
         <v>565.07000000000005</v>
@@ -3515,7 +3596,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3529,7 +3610,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D10">
         <v>712.33</v>
@@ -3543,7 +3624,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D11">
         <v>409.68</v>
@@ -3557,7 +3638,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D12">
         <v>522.86</v>
@@ -3571,7 +3652,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <v>705.59</v>
@@ -3585,7 +3666,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D14">
         <v>647.20000000000005</v>
@@ -3599,7 +3680,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D15">
         <v>806.89</v>
@@ -3613,7 +3694,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D16">
         <v>333.94</v>
@@ -3627,7 +3708,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D17">
         <v>721.62</v>
@@ -3641,7 +3722,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D18">
         <v>1451.95</v>
@@ -3655,7 +3736,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D19">
         <v>711.02</v>
@@ -3669,7 +3750,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D20">
         <v>331.35</v>
@@ -3683,7 +3764,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D21">
         <v>501.12</v>
@@ -3697,7 +3778,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D22">
         <v>268.24</v>
@@ -3711,7 +3792,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D23">
         <v>281.05</v>
@@ -3725,7 +3806,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D24">
         <v>720.33</v>
@@ -3739,7 +3820,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D25">
         <v>890.42</v>
@@ -3753,7 +3834,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D26">
         <v>749.37</v>
@@ -3767,7 +3848,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D27">
         <v>501.12</v>
@@ -3781,7 +3862,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3795,7 +3876,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3809,7 +3890,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3823,7 +3904,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3837,7 +3918,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3851,7 +3932,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3865,7 +3946,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3879,7 +3960,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3893,7 +3974,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3907,7 +3988,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3921,7 +4002,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3935,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3949,7 +4030,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D40">
         <v>817.97</v>
@@ -3963,7 +4044,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D41">
         <v>475.85</v>
@@ -3977,7 +4058,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D42">
         <v>712.73</v>
@@ -3991,7 +4072,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D43">
         <v>844.17</v>
@@ -4005,7 +4086,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D44">
         <v>635.34</v>
@@ -4019,7 +4100,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D45">
         <v>375.82</v>
@@ -4033,7 +4114,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D46">
         <v>567.71</v>
@@ -4047,7 +4128,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D47">
         <v>134.16</v>
@@ -4061,7 +4142,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="D48">
         <v>913.55</v>
@@ -4075,7 +4156,7 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="D49">
         <v>926.3</v>
@@ -4089,7 +4170,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="D50">
         <v>511.73</v>
@@ -4103,7 +4184,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="D51">
         <v>1521.41</v>
@@ -4117,7 +4198,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="D52">
         <v>1061.82</v>
@@ -4131,7 +4212,7 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="D53">
         <v>1268.067</v>
@@ -4145,10 +4226,94 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D54">
         <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55">
+        <v>938.27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56">
+        <v>1079.52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57">
+        <v>655.94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58">
+        <v>307.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59">
+        <v>1094.31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60">
+        <v>667.67</v>
       </c>
     </row>
   </sheetData>
@@ -4158,7 +4323,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4190,13 +4355,13 @@
         <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -4207,37 +4372,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
         <v>115</v>
       </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>112</v>
-      </c>
       <c r="F2">
-        <v>33.848999999999997</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>867.33</v>
+        <v>151.38499999999999</v>
       </c>
       <c r="H2">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>503.0514</v>
+        <v>151.38499999999999</v>
       </c>
       <c r="K2">
-        <v>867.33</v>
+        <v>151.38499999999999</v>
       </c>
       <c r="L2">
-        <v>364.27859999999998</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -4248,37 +4413,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
         <v>115</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3">
-        <v>1.48</v>
-      </c>
       <c r="G3">
-        <v>18.828721420000001</v>
+        <v>151.38499999999999</v>
       </c>
       <c r="H3">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>15.8161259928</v>
+        <v>151.38499999999999</v>
       </c>
       <c r="K3">
-        <v>18.828721420000001</v>
+        <v>151.38499999999999</v>
       </c>
       <c r="L3">
-        <v>3.0125954272000008</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -4289,37 +4454,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
         <v>115</v>
       </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>112</v>
-      </c>
       <c r="F4">
-        <v>1.4379999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G4">
-        <v>32.028825480000002</v>
+        <v>732.6</v>
       </c>
       <c r="H4">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>26.9042134032</v>
+        <v>586.08000000000004</v>
       </c>
       <c r="K4">
-        <v>32.028825480000002</v>
+        <v>732.6</v>
       </c>
       <c r="L4">
-        <v>5.1246120768000019</v>
+        <v>146.52000000000001</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -4330,37 +4495,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
         <v>115</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>112</v>
-      </c>
       <c r="F5">
-        <v>1.56</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="G5">
-        <v>41.048906299999999</v>
+        <v>99.9</v>
       </c>
       <c r="H5">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>34.481081291999999</v>
+        <v>99.9</v>
       </c>
       <c r="K5">
-        <v>41.048906299999999</v>
+        <v>99.9</v>
       </c>
       <c r="L5">
-        <v>6.5678250079999998</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -4371,37 +4536,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F6">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>176.47453530000001</v>
+        <v>208</v>
       </c>
       <c r="H6">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>148.23860965200001</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>176.47453530000001</v>
+        <v>208</v>
       </c>
       <c r="L6">
-        <v>28.235925648000009</v>
+        <v>208</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -4412,37 +4577,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.09</v>
+        <v>178.13</v>
       </c>
       <c r="H7">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>24.348600000000001</v>
+        <v>178.13</v>
       </c>
       <c r="K7">
-        <v>45.09</v>
+        <v>178.13</v>
       </c>
       <c r="L7">
-        <v>20.741399999999999</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -4453,37 +4618,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>7.23</v>
       </c>
       <c r="G8">
-        <v>45.09</v>
+        <v>274.56</v>
       </c>
       <c r="H8">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>24.348600000000001</v>
+        <v>274.56</v>
       </c>
       <c r="K8">
-        <v>45.09</v>
+        <v>274.56</v>
       </c>
       <c r="L8">
-        <v>20.741399999999999</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4494,37 +4659,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>6.8940000000000001</v>
       </c>
       <c r="G9">
-        <v>45.09</v>
+        <v>225.46</v>
       </c>
       <c r="H9">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>24.348600000000001</v>
+        <v>225.46</v>
       </c>
       <c r="K9">
-        <v>45.09</v>
+        <v>225.46</v>
       </c>
       <c r="L9">
-        <v>20.741399999999999</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4535,37 +4700,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>16.02</v>
       </c>
       <c r="G10">
-        <v>45.09</v>
+        <v>318.42</v>
       </c>
       <c r="H10">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>24.348600000000001</v>
+        <v>318.42</v>
       </c>
       <c r="K10">
-        <v>45.09</v>
+        <v>318.42</v>
       </c>
       <c r="L10">
-        <v>20.741399999999999</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -4576,37 +4741,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>8.36</v>
       </c>
       <c r="G11">
-        <v>45.09</v>
+        <v>149.54</v>
       </c>
       <c r="H11">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>24.348600000000001</v>
+        <v>149.54</v>
       </c>
       <c r="K11">
-        <v>45.09</v>
+        <v>149.54</v>
       </c>
       <c r="L11">
-        <v>20.741399999999999</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -4617,37 +4782,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="G12">
-        <v>45.09</v>
+        <v>132.86610229999999</v>
       </c>
       <c r="H12">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>24.348600000000001</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>45.09</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.741399999999999</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -4658,37 +4823,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>1.79</v>
       </c>
       <c r="G13">
-        <v>45.09</v>
+        <v>53.047480929999999</v>
       </c>
       <c r="H13">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>24.348600000000001</v>
+        <v>53.047480929999999</v>
       </c>
       <c r="K13">
-        <v>45.09</v>
+        <v>53.047480929999999</v>
       </c>
       <c r="L13">
-        <v>20.741399999999999</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -4699,37 +4864,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>2.72</v>
       </c>
       <c r="G14">
-        <v>10.66</v>
+        <v>29.974988280000002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>29.974988280000002</v>
       </c>
       <c r="K14">
-        <v>10.66</v>
+        <v>29.974988280000002</v>
       </c>
       <c r="L14">
-        <v>10.66</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -4740,37 +4905,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
         <v>116</v>
       </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>113</v>
-      </c>
       <c r="F15">
-        <v>36.575000000000003</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1193.75</v>
+        <v>168.38</v>
       </c>
       <c r="H15">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>955</v>
+        <v>159.96100000000001</v>
       </c>
       <c r="K15">
-        <v>1193.75</v>
+        <v>168.38</v>
       </c>
       <c r="L15">
-        <v>238.75</v>
+        <v>8.4190000000000111</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -4781,37 +4946,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>183.3461227</v>
+        <v>168.38</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>110.00767362000001</v>
+        <v>16.838000000000001</v>
       </c>
       <c r="K16">
-        <v>183.3461227</v>
+        <v>168.38</v>
       </c>
       <c r="L16">
-        <v>73.338449080000004</v>
+        <v>151.542</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -4822,37 +4987,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>23.815000000000001</v>
       </c>
       <c r="G17">
-        <v>308.00184510000003</v>
+        <v>638.85</v>
       </c>
       <c r="H17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>184.80110705999999</v>
+        <v>319.42500000000001</v>
       </c>
       <c r="K17">
-        <v>308.00184510000003</v>
+        <v>638.85</v>
       </c>
       <c r="L17">
-        <v>123.20073804</v>
+        <v>319.42500000000001</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -4863,37 +5028,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>182.28597360000001</v>
+        <v>507.95</v>
       </c>
       <c r="H18">
-        <v>0.27</v>
+        <v>0.78</v>
       </c>
       <c r="I18">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>49.217212871999998</v>
+        <v>396.20100000000002</v>
       </c>
       <c r="K18">
-        <v>122.131602312</v>
+        <v>507.95</v>
       </c>
       <c r="L18">
-        <v>72.914389440000008</v>
+        <v>111.749</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -4904,37 +5069,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>182.28597360000001</v>
+        <v>141.3235316</v>
       </c>
       <c r="H19">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="J19">
-        <v>49.217212871999998</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>122.131602312</v>
+        <v>105.9926487</v>
       </c>
       <c r="L19">
-        <v>72.914389440000008</v>
+        <v>105.9926487</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -4945,37 +5110,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>182.28597360000001</v>
+        <v>154.0745714</v>
       </c>
       <c r="H20">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="J20">
-        <v>49.217212871999998</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>122.131602312</v>
+        <v>115.55592855</v>
       </c>
       <c r="L20">
-        <v>72.914389440000008</v>
+        <v>115.55592855</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -4986,37 +5151,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>182.28597360000001</v>
+        <v>151.0703345</v>
       </c>
       <c r="H21">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="I21">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>49.217212871999998</v>
+        <v>45.321100350000002</v>
       </c>
       <c r="K21">
-        <v>122.131602312</v>
+        <v>151.0703345</v>
       </c>
       <c r="L21">
-        <v>72.914389440000008</v>
+        <v>105.74923415000001</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -5027,37 +5192,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>182.28597360000001</v>
+        <v>143.81093200000001</v>
       </c>
       <c r="H22">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="I22">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="J22">
-        <v>49.217212871999998</v>
+        <v>14.3810932</v>
       </c>
       <c r="K22">
-        <v>122.131602312</v>
+        <v>100.66765239999999</v>
       </c>
       <c r="L22">
-        <v>72.914389440000008</v>
+        <v>86.286559199999999</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -5068,37 +5233,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>279.35073799999998</v>
+        <v>155.69327179999999</v>
       </c>
       <c r="H23">
-        <v>0.27</v>
+        <v>0.8</v>
       </c>
       <c r="I23">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>75.424699259999997</v>
+        <v>124.55461744</v>
       </c>
       <c r="K23">
-        <v>187.16499446</v>
+        <v>155.69327179999999</v>
       </c>
       <c r="L23">
-        <v>111.74029520000001</v>
+        <v>31.13865435999999</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -5109,37 +5274,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F24">
-        <v>34.94</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1564.32</v>
+        <v>216.75147200000001</v>
       </c>
       <c r="H24">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J24">
-        <v>1533.0336</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1564.32</v>
+        <v>151.72603040000001</v>
       </c>
       <c r="L24">
-        <v>31.286399999999961</v>
+        <v>151.72603040000001</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -5150,37 +5315,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>283.3851262</v>
+        <v>353.8204149</v>
       </c>
       <c r="H25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>141.6925631</v>
+        <v>353.8204149</v>
       </c>
       <c r="K25">
-        <v>283.3851262</v>
+        <v>353.8204149</v>
       </c>
       <c r="L25">
-        <v>141.6925631</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5191,37 +5356,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>267.87028529999998</v>
+        <v>415.5317</v>
       </c>
       <c r="H26">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>107.14811412</v>
+        <v>415.5317</v>
       </c>
       <c r="K26">
-        <v>267.87028529999998</v>
+        <v>415.5317</v>
       </c>
       <c r="L26">
-        <v>160.72217118</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -5232,37 +5397,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>225.81</v>
+        <v>373.34588300000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>317.34400054999998</v>
       </c>
       <c r="K27">
-        <v>225.81</v>
+        <v>373.34588300000001</v>
       </c>
       <c r="L27">
-        <v>225.81</v>
+        <v>56.001882449999982</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -5273,37 +5438,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>301.6651</v>
+        <v>143.16040000000001</v>
       </c>
       <c r="H28">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>120.66604</v>
+        <v>143.16040000000001</v>
       </c>
       <c r="K28">
-        <v>301.6651</v>
+        <v>143.16040000000001</v>
       </c>
       <c r="L28">
-        <v>180.99905999999999</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5314,37 +5479,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>187.8663</v>
+        <v>165.18307999999999</v>
       </c>
       <c r="H29">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>150.29303999999999</v>
+        <v>140.405618</v>
       </c>
       <c r="K29">
-        <v>187.8663</v>
+        <v>165.18307999999999</v>
       </c>
       <c r="L29">
-        <v>37.573259999999998</v>
+        <v>24.777462000000011</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -5355,37 +5520,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>191.39009999999999</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H30">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>153.11207999999999</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K30">
-        <v>191.39009999999999</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L30">
-        <v>38.278019999999998</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -5396,37 +5561,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F31">
-        <v>7.18</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>36.088865039381247</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>36.088865039381247</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K31">
-        <v>36.088865039381247</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -5437,37 +5602,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F32">
-        <v>3.8279999999999998</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>54.376977932306822</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>54.376977932306822</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K32">
-        <v>54.376977932306822</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -5478,37 +5643,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F33">
-        <v>1.9650000000000001</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>70.108245228127444</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>70.108245228127444</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K33">
-        <v>70.108245228127444</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -5519,37 +5684,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F34">
-        <v>13.8</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>565.05490314340454</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>565.05490314340454</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K34">
-        <v>565.05490314340454</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5560,37 +5725,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F35">
-        <v>2.9129999999999998</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>36.350741502873767</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>36.350741502873767</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K35">
-        <v>36.350741502873767</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -5601,37 +5766,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F36">
-        <v>3.4140000000000001</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>62.730761725679422</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>62.730761725679422</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K36">
-        <v>62.730761725679422</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -5642,37 +5807,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F37">
-        <v>6.8319999999999999</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>176.76293195203289</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>176.76293195203289</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K37">
-        <v>176.76293195203289</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -5683,34 +5848,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F38">
-        <v>2.8929999999999998</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>45.673286383310867</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J38">
-        <v>45.673286383310867</v>
+        <v>14.833312998900009</v>
       </c>
       <c r="K38">
-        <v>45.673286383310867</v>
+        <v>14.833312998900009</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5724,37 +5889,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F39">
-        <v>2.6219999999999999</v>
+        <v>15</v>
       </c>
       <c r="G39">
-        <v>39.889138224650537</v>
+        <v>150.75812082990001</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>39.889138224650537</v>
+        <v>82.916966456444996</v>
       </c>
       <c r="K39">
-        <v>39.889138224650537</v>
+        <v>150.75812082990001</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>67.841154373454984</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5765,22 +5930,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F40">
-        <v>2.665</v>
+        <v>3.036</v>
       </c>
       <c r="G40">
-        <v>15.51163698289931</v>
+        <v>45.420945379999999</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -5789,10 +5954,10 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>15.51163698289931</v>
+        <v>45.420945379999999</v>
       </c>
       <c r="K40">
-        <v>15.51163698289931</v>
+        <v>45.420945379999999</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -5806,22 +5971,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C41">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F41">
-        <v>3.5950000000000002</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="G41">
-        <v>37.856219399701978</v>
+        <v>61.408012210000003</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -5830,10 +5995,10 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>37.856219399701978</v>
+        <v>61.408012210000003</v>
       </c>
       <c r="K41">
-        <v>37.856219399701978</v>
+        <v>61.408012210000003</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -5847,22 +6012,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C42">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F42">
-        <v>2.2040000000000002</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="G42">
-        <v>17.696879656567091</v>
+        <v>67.666316499999994</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -5871,10 +6036,10 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>17.696879656567091</v>
+        <v>67.666316499999994</v>
       </c>
       <c r="K42">
-        <v>17.696879656567091</v>
+        <v>67.666316499999994</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -5888,34 +6053,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C43">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F43">
-        <v>7.6109999999999998</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="G43">
-        <v>157.1547044632087</v>
+        <v>25.706503519999998</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>157.1547044632087</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>157.1547044632087</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -5929,22 +6094,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C44">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F44">
-        <v>1.3049999999999999</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="G44">
-        <v>32.572846448591513</v>
+        <v>139.5950848</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -5953,10 +6118,10 @@
         <v>1</v>
       </c>
       <c r="J44">
-        <v>32.572846448591513</v>
+        <v>139.5950848</v>
       </c>
       <c r="K44">
-        <v>32.572846448591513</v>
+        <v>139.5950848</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -5970,34 +6135,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C45">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F45">
-        <v>1.105</v>
+        <v>5.2176</v>
       </c>
       <c r="G45">
-        <v>37.708401333995603</v>
+        <v>103.1260091</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>37.708401333995603</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>37.708401333995603</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -6011,37 +6176,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C46">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F46">
-        <v>2.11</v>
+        <v>4.327</v>
       </c>
       <c r="G46">
-        <v>14.60007627900376</v>
+        <v>115.1915241</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>14.60007627900376</v>
+        <v>51.836185845000003</v>
       </c>
       <c r="K46">
-        <v>14.60007627900376</v>
+        <v>115.1915241</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>63.355338254999999</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -6052,37 +6217,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="G47">
-        <v>45.13</v>
+        <v>65.549040759999997</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>65.549040759999997</v>
       </c>
       <c r="K47">
-        <v>45.13</v>
+        <v>65.549040759999997</v>
       </c>
       <c r="L47">
-        <v>45.13</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -6093,39 +6258,80 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="E48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48">
+        <v>4.5</v>
+      </c>
+      <c r="G48">
+        <v>145.97701989999999</v>
+      </c>
+      <c r="H48">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>83.206901342999984</v>
+      </c>
+      <c r="K48">
+        <v>145.97701989999999</v>
+      </c>
+      <c r="L48">
+        <v>62.770118557000004</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
         <v>114</v>
       </c>
-      <c r="F48">
-        <v>12</v>
-      </c>
-      <c r="G48">
-        <v>131.38</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>131.38</v>
-      </c>
-      <c r="L48">
-        <v>131.38</v>
-      </c>
-      <c r="M48">
+      <c r="E49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49">
+        <v>7.51</v>
+      </c>
+      <c r="G49">
+        <v>137.49720149999999</v>
+      </c>
+      <c r="H49">
+        <v>0.53</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>72.873516795</v>
+      </c>
+      <c r="K49">
+        <v>137.49720149999999</v>
+      </c>
+      <c r="L49">
+        <v>64.623684704999988</v>
+      </c>
+      <c r="M49">
         <v>0</v>
       </c>
     </row>
@@ -6136,7 +6342,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6144,19 +6350,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6164,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6184,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6204,7 +6410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6224,7 +6430,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6244,7 +6450,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -6264,7 +6470,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6284,7 +6490,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6304,7 +6510,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6324,7 +6530,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6344,7 +6550,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6364,7 +6570,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6384,7 +6590,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6404,7 +6610,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6424,7 +6630,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6444,7 +6650,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -6464,7 +6670,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6484,7 +6690,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -6504,7 +6710,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -6524,7 +6730,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -6544,7 +6750,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -6564,7 +6770,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -6584,7 +6790,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6604,7 +6810,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -6624,7 +6830,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -6644,7 +6850,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -6664,7 +6870,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6684,7 +6890,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -6704,7 +6910,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -6724,7 +6930,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -6744,7 +6950,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -6764,7 +6970,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -6784,7 +6990,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -6804,7 +7010,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -6824,7 +7030,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -6844,7 +7050,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -6864,7 +7070,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -6884,7 +7090,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -6904,7 +7110,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -6924,7 +7130,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -6944,7 +7150,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -6964,7 +7170,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -6984,7 +7190,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -7004,7 +7210,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -7024,7 +7230,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -7044,7 +7250,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -7064,7 +7270,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -7084,19 +7290,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="C48">
-        <v>898.9316303400002</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1462.000988499999</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>913.55</v>
       </c>
       <c r="F48">
-        <v>548.45098849999954</v>
+        <v>-913.55</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7104,19 +7310,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="C49">
-        <v>955</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1193.75</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>926.3</v>
       </c>
       <c r="F49">
-        <v>267.45</v>
+        <v>-926.3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7124,19 +7330,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="C50">
-        <v>616.31954430000008</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1289.17097382</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>511.73</v>
       </c>
       <c r="F50">
-        <v>777.44097382000018</v>
+        <v>-511.73</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7144,19 +7350,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="C51">
-        <v>1533.0336</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1564.32</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>1521.41</v>
       </c>
       <c r="F51">
-        <v>42.909999999999847</v>
+        <v>-1521.41</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -7164,19 +7370,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="C52">
-        <v>672.91183722000005</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1457.9869114999999</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>1061.82</v>
       </c>
       <c r="F52">
-        <v>396.16691150000003</v>
+        <v>-1061.82</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7184,19 +7390,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="C53">
-        <v>1400.1366156957361</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1576.646615695736</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>1268.067</v>
       </c>
       <c r="F53">
-        <v>308.57961569573581</v>
+        <v>-1268.067</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7204,7 +7410,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -7217,6 +7423,126 @@
       </c>
       <c r="F54">
         <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55">
+        <v>1166.8800000000001</v>
+      </c>
+      <c r="D55">
+        <v>1521.4</v>
+      </c>
+      <c r="E55">
+        <v>938.27</v>
+      </c>
+      <c r="F55">
+        <v>583.13000000000011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56">
+        <v>1227.8014692100001</v>
+      </c>
+      <c r="D56">
+        <v>1387.7624692100001</v>
+      </c>
+      <c r="E56">
+        <v>1079.52</v>
+      </c>
+      <c r="F56">
+        <v>308.24246921000031</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57">
+        <v>715.62599999999998</v>
+      </c>
+      <c r="D57">
+        <v>1146.8</v>
+      </c>
+      <c r="E57">
+        <v>655.94</v>
+      </c>
+      <c r="F57">
+        <v>490.8599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58">
+        <v>538.07722589000002</v>
+      </c>
+      <c r="D58">
+        <v>1134.52628125</v>
+      </c>
+      <c r="E58">
+        <v>307.8</v>
+      </c>
+      <c r="F58">
+        <v>826.72628125000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59">
+        <v>1366.3583189866449</v>
+      </c>
+      <c r="D59">
+        <v>1559.4787568067991</v>
+      </c>
+      <c r="E59">
+        <v>1094.31</v>
+      </c>
+      <c r="F59">
+        <v>465.16875680679942</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60">
+        <v>587.55600363300005</v>
+      </c>
+      <c r="D60">
+        <v>778.30514514999993</v>
+      </c>
+      <c r="E60">
+        <v>667.67</v>
+      </c>
+      <c r="F60">
+        <v>110.63514515</v>
       </c>
     </row>
   </sheetData>
@@ -7243,16 +7569,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7269,16 +7595,16 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>82.916966456444996</v>
       </c>
       <c r="F2">
-        <v>142.04</v>
+        <v>150.75812082990001</v>
       </c>
       <c r="G2">
-        <v>291.81</v>
+        <v>22</v>
       </c>
       <c r="H2">
-        <v>-149.77000000000001</v>
+        <v>128.75812082990001</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7321,16 +7647,16 @@
         <v>37</v>
       </c>
       <c r="E4">
-        <v>543.64945790000002</v>
+        <v>538.07722589000002</v>
       </c>
       <c r="F4">
-        <v>1042.6033792999999</v>
+        <v>1342.52628125</v>
       </c>
       <c r="G4">
         <v>6503.97</v>
       </c>
       <c r="H4">
-        <v>-5461.3666207000006</v>
+        <v>-5161.4437187500007</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7347,16 +7673,16 @@
         <v>37</v>
       </c>
       <c r="E5">
-        <v>170.4402</v>
+        <v>266.99963398020009</v>
       </c>
       <c r="F5">
-        <v>360.76</v>
+        <v>311.49957297690008</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>360.76</v>
+        <v>311.49957297690008</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7373,16 +7699,16 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>745.58192362</v>
+        <v>1371.37071855</v>
       </c>
       <c r="F6">
-        <v>1704.55450602</v>
+        <v>1612.1110630000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1704.55450602</v>
+        <v>1612.1110630000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7425,16 +7751,16 @@
         <v>38</v>
       </c>
       <c r="E8">
-        <v>2580.5766460357349</v>
+        <v>587.55600363300005</v>
       </c>
       <c r="F8">
-        <v>2862.2676041957352</v>
+        <v>778.30514514999993</v>
       </c>
       <c r="G8">
         <v>2546.54</v>
       </c>
       <c r="H8">
-        <v>315.72760419573518</v>
+        <v>-1768.2348548499999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7451,16 +7777,16 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>769.00246921000007</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>915.52246921000005</v>
       </c>
       <c r="G9">
         <v>51.09</v>
       </c>
       <c r="H9">
-        <v>-51.09</v>
+        <v>864.43246921000002</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7503,16 +7829,16 @@
         <v>41</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1270.75</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1270.75</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1270.75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7529,16 +7855,16 @@
         <v>42</v>
       </c>
       <c r="E12">
-        <v>2036.085</v>
+        <v>715.62599999999998</v>
       </c>
       <c r="F12">
-        <v>2431.65</v>
+        <v>1146.8</v>
       </c>
       <c r="G12">
         <v>5833.04</v>
       </c>
       <c r="H12">
-        <v>-3401.39</v>
+        <v>-4686.24</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7655,16 +7981,15 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7672,43 +7997,43 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>82.92</v>
       </c>
       <c r="D2" s="2">
-        <v>142.04</v>
+        <v>150.76</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
-        <v>142.04</v>
+        <v>128.76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2">
@@ -7728,67 +8053,67 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="2">
-        <v>1459.67158152</v>
+        <v>2176.4499999999998</v>
       </c>
       <c r="D4" s="2">
-        <v>3107.9178853200001</v>
+        <v>3266.14</v>
       </c>
       <c r="E4" s="2">
-        <v>1769.37</v>
+        <v>1478.11</v>
       </c>
       <c r="F4" s="2">
-        <v>1338.54788532</v>
+        <v>1788.03</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="2">
-        <v>2580.5766460357349</v>
+        <v>587.55999999999995</v>
       </c>
       <c r="D5" s="2">
-        <v>2862.2676041957352</v>
+        <v>778.31</v>
       </c>
       <c r="E5" s="2">
-        <v>2317</v>
+        <v>667.67</v>
       </c>
       <c r="F5" s="2">
-        <v>545.2676041957352</v>
+        <v>110.64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>915.52</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>766.97</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>148.55000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="2">
@@ -7808,47 +8133,47 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1270.75</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1270.75</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1152.82</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>117.93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="2">
-        <v>2036.085</v>
+        <v>715.63</v>
       </c>
       <c r="D9" s="2">
-        <v>2431.65</v>
+        <v>1146.8</v>
       </c>
       <c r="E9" s="2">
-        <v>2117.11</v>
+        <v>655.94</v>
       </c>
       <c r="F9" s="2">
-        <v>314.54000000000002</v>
+        <v>490.86</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="2">
@@ -7868,7 +8193,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="2">
@@ -7888,7 +8213,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="2">
@@ -7908,7 +8233,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="2">
@@ -7925,7 +8250,22 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="2"/>
+      <c r="C14" s="2">
+        <f>SUM(C2:C13)</f>
+        <v>5602.31</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:F14" si="0">SUM(D2:D13)</f>
+        <v>7528.28</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>4743.51</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>2784.77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
